--- a/data/unused_coords.xlsx
+++ b/data/unused_coords.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="567">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>full_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="541">
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>original_location_name</t>
   </si>
   <si>
     <t>lat</t>
@@ -79,9 +79,6 @@
     <t>Γαλατάς</t>
   </si>
   <si>
-    <t>Μεγαλοχώρι</t>
-  </si>
-  <si>
     <t>Άγιος Κωνσταντίνος</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Δάφνη</t>
   </si>
   <si>
-    <t>Ίλιον</t>
-  </si>
-  <si>
     <t>Ροδόπολις</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Άγιος Δημήτριος</t>
   </si>
   <si>
-    <t>Σέλλαι</t>
-  </si>
-  <si>
     <t>Τσοτίλιον</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Καλλιθέα</t>
   </si>
   <si>
-    <t>Ακταίο</t>
-  </si>
-  <si>
     <t>Ανεμόμυλος</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t>Αγία Παρασκευή</t>
   </si>
   <si>
-    <t>Θύριον</t>
-  </si>
-  <si>
     <t>Κουτσομήλια</t>
   </si>
   <si>
@@ -400,9 +385,6 @@
     <t>Γαλατάς,ο</t>
   </si>
   <si>
-    <t>Μεγαλοχώρι,το (τ.Αγκίστριον,το)</t>
-  </si>
-  <si>
     <t>Άγιος Κωνσταντίνος,ο</t>
   </si>
   <si>
@@ -412,9 +394,6 @@
     <t>Δάφνη,η</t>
   </si>
   <si>
-    <t>Ίλιον,το (Νέα Λιόσια,τα)</t>
-  </si>
-  <si>
     <t>Ροδόπολις,η (τ.Μπάλα,η)</t>
   </si>
   <si>
@@ -469,9 +448,6 @@
     <t>Άγιος Δημήτριος,ο (τ.Καραμανλή Μετόχι,το)</t>
   </si>
   <si>
-    <t>Σέλλαι,οι</t>
-  </si>
-  <si>
     <t>Τσοτίλιον,το</t>
   </si>
   <si>
@@ -529,9 +505,6 @@
     <t>Καλλιθέα,η (τ.Καλλιθεόκαμπος,ο)</t>
   </si>
   <si>
-    <t>Ακταίο,το  (τ.Βερναρδαίικα,τα)</t>
-  </si>
-  <si>
     <t>Ανεμόμυλος,ο</t>
   </si>
   <si>
@@ -583,9 +556,6 @@
     <t>Αγία Παρασκευή,η</t>
   </si>
   <si>
-    <t>Θύριον,το (τ.Θύρρειον,το)</t>
-  </si>
-  <si>
     <t>Κουτσομήλια,τα</t>
   </si>
   <si>
@@ -736,9 +706,6 @@
     <t>Γαλατά</t>
   </si>
   <si>
-    <t>Αγκιστρίου</t>
-  </si>
-  <si>
     <t>Αγίου Κωνσταντίνου</t>
   </si>
   <si>
@@ -748,9 +715,6 @@
     <t>Δάφνης</t>
   </si>
   <si>
-    <t>Ιλίου (Νέων Λιοσίων)</t>
-  </si>
-  <si>
     <t>Ροδοπόλεως (Μπάλας)</t>
   </si>
   <si>
@@ -787,9 +751,6 @@
     <t>Γαζίου</t>
   </si>
   <si>
-    <t>Λούμα</t>
-  </si>
-  <si>
     <t>Τσοτιλίου</t>
   </si>
   <si>
@@ -844,9 +805,6 @@
     <t>Καλλιθέας</t>
   </si>
   <si>
-    <t>Ακταίου (Βερναρδαιίκων)</t>
-  </si>
-  <si>
     <t>Τσουκαλαιίκων</t>
   </si>
   <si>
@@ -889,9 +847,6 @@
     <t>Αγίας Παρασκευής</t>
   </si>
   <si>
-    <t>Θυρίου (τ.Θυρρείου)</t>
-  </si>
-  <si>
     <t>Κάτω Χρυσοβίτσης</t>
   </si>
   <si>
@@ -1006,9 +961,6 @@
     <t>ΤΡΟΙΖΗΝΟΣ</t>
   </si>
   <si>
-    <t>ΑΓΚΙΣΤΡΙΟΥ</t>
-  </si>
-  <si>
     <t>ΑΓΙΟΥ ΚΩΝΣΤΑΝΤΙΝ</t>
   </si>
   <si>
@@ -1018,9 +970,6 @@
     <t>ΔΑΦΝΗΣ</t>
   </si>
   <si>
-    <t>ΙΛΙΟΥ (ΝΕΩΝ ΛΙΟΣΙΩΝ)</t>
-  </si>
-  <si>
     <t>ΡΟΔΟΠΟΛΕΩΣ</t>
   </si>
   <si>
@@ -1057,9 +1006,6 @@
     <t>ΓΑΖΙΟΥ</t>
   </si>
   <si>
-    <t>ΑΓΙΟΥ ΝΙΚΟΛΑΟΥ</t>
-  </si>
-  <si>
     <t>ΤΣΟΤΥΛΙΟΥ</t>
   </si>
   <si>
@@ -1111,9 +1057,6 @@
     <t>ΜΕΣΣΑΤΙΔΟΣ</t>
   </si>
   <si>
-    <t>ΡΙΟΥ</t>
-  </si>
-  <si>
     <t>ΒΡΑΧΝΑΙΙΚΩΝ</t>
   </si>
   <si>
@@ -1159,9 +1102,6 @@
     <t>ΣΤΡΑΤΟΥ</t>
   </si>
   <si>
-    <t>ΑΝΑΚΤΟΡΙΟΥ</t>
-  </si>
-  <si>
     <t>ΘΕΡΜΟΥ</t>
   </si>
   <si>
@@ -1276,9 +1216,6 @@
     <t>ΗΡΑΚΛΕΙΟΥ</t>
   </si>
   <si>
-    <t>ΛΑΣΙΘΙΟΥ</t>
-  </si>
-  <si>
     <t>ΚΟΖΑΝΗΣ</t>
   </si>
   <si>
@@ -1396,9 +1333,6 @@
     <t>(37.49297333, 23.44756126)</t>
   </si>
   <si>
-    <t>(37.70751572, 23.34351349)</t>
-  </si>
-  <si>
     <t>(37.72296143, 24.0122242)</t>
   </si>
   <si>
@@ -1408,9 +1342,6 @@
     <t>(37.94947815, 23.72930336)</t>
   </si>
   <si>
-    <t>(38.03064728, 23.7050705)</t>
-  </si>
-  <si>
     <t>(38.11460495, 23.87171555)</t>
   </si>
   <si>
@@ -1465,9 +1396,6 @@
     <t>(35.33547211, 25.07364464)</t>
   </si>
   <si>
-    <t>(35.31861115, 25.71932602)</t>
-  </si>
-  <si>
     <t>(40.26165009, 21.32537079)</t>
   </si>
   <si>
@@ -1528,9 +1456,6 @@
     <t>(38.15978241, 21.72546768)</t>
   </si>
   <si>
-    <t>(38.29988098, 21.79375267)</t>
-  </si>
-  <si>
     <t>(38.15267563, 21.63353157)</t>
   </si>
   <si>
@@ -1586,9 +1511,6 @@
   </si>
   <si>
     <t>(38.68724823, 21.52708244)</t>
-  </si>
-  <si>
-    <t>(38.85409927, 20.98006439)</t>
   </si>
   <si>
     <t>(38.56124496, 21.70519638)</t>
@@ -2072,7 +1994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2121,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>38.38757706</v>
@@ -2133,19 +2055,19 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="J2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K2" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2159,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>38.79864883</v>
@@ -2171,19 +2093,19 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K3" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2197,7 +2119,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>36.21850967</v>
@@ -2209,19 +2131,19 @@
         <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J4" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K4" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2235,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>36.84542465</v>
@@ -2247,19 +2169,19 @@
         <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J5" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K5" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -2273,7 +2195,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>36.33573914</v>
@@ -2285,19 +2207,19 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J6" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K6" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -2311,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>36.78866959</v>
@@ -2323,19 +2245,19 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I7" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2349,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>36.78043365</v>
@@ -2361,19 +2283,19 @@
         <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K8" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2387,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>36.69112396</v>
@@ -2399,19 +2321,19 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="J9" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K9" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -2425,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>37.57410431</v>
@@ -2437,19 +2359,19 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="J10" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K10" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2463,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>37.49297333</v>
@@ -2475,19 +2397,19 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K11" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2495,37 +2417,37 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12">
-        <v>37.70751572</v>
+        <v>37.72296143</v>
       </c>
       <c r="E12">
-        <v>23.34351349</v>
+        <v>24.0122242</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="J12" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K12" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -2533,37 +2455,37 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>2354</v>
+        <v>2368</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>37.72296143</v>
+        <v>37.89225388</v>
       </c>
       <c r="E13">
-        <v>24.0122242</v>
+        <v>23.96352196</v>
       </c>
       <c r="F13">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J13" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K13" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2571,37 +2493,37 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>2368</v>
+        <v>2382</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14">
-        <v>37.89225388</v>
+        <v>37.94947815</v>
       </c>
       <c r="E14">
-        <v>23.96352196</v>
+        <v>23.72930336</v>
       </c>
       <c r="F14">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="J14" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K14" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2609,37 +2531,37 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>2382</v>
+        <v>2450</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D15">
-        <v>37.94947815</v>
+        <v>38.11460495</v>
       </c>
       <c r="E15">
-        <v>23.72930336</v>
+        <v>23.87171555</v>
       </c>
       <c r="F15">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I15" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J15" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K15" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2647,37 +2569,37 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>2421</v>
+        <v>2525</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D16">
-        <v>38.03064728</v>
+        <v>38.02657318</v>
       </c>
       <c r="E16">
-        <v>23.7050705</v>
+        <v>23.92149734</v>
       </c>
       <c r="F16">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J16" t="s">
+        <v>422</v>
+      </c>
+      <c r="K16" t="s">
         <v>443</v>
-      </c>
-      <c r="K16" t="s">
-        <v>464</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2685,37 +2607,37 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>2450</v>
+        <v>2528</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>38.11460495</v>
+        <v>38.01332092</v>
       </c>
       <c r="E17">
-        <v>23.87171555</v>
+        <v>23.93324471</v>
       </c>
       <c r="F17">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="I17" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J17" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K17" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2723,37 +2645,37 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>2525</v>
+        <v>2585</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D18">
-        <v>38.02657318</v>
+        <v>37.95846176</v>
       </c>
       <c r="E18">
-        <v>23.92149734</v>
+        <v>23.98041725</v>
       </c>
       <c r="F18">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J18" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K18" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2761,37 +2683,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>2528</v>
+        <v>2586</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D19">
-        <v>38.01332092</v>
+        <v>37.96399689</v>
       </c>
       <c r="E19">
-        <v>23.93324471</v>
+        <v>23.97866631</v>
       </c>
       <c r="F19">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J19" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K19" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2799,37 +2721,37 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20">
-        <v>37.95846176</v>
+        <v>37.9718399</v>
       </c>
       <c r="E20">
-        <v>23.98041725</v>
+        <v>23.97419548</v>
       </c>
       <c r="F20">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I20" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J20" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K20" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2837,37 +2759,37 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D21">
-        <v>37.96399689</v>
+        <v>37.9850502</v>
       </c>
       <c r="E21">
-        <v>23.97866631</v>
+        <v>23.93241119</v>
       </c>
       <c r="F21">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J21" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K21" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2875,37 +2797,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D22">
-        <v>37.9718399</v>
+        <v>37.99121857</v>
       </c>
       <c r="E22">
-        <v>23.97419548</v>
+        <v>23.97574425</v>
       </c>
       <c r="F22">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I22" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J22" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K22" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2913,37 +2835,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>2588</v>
+        <v>2593</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D23">
-        <v>37.9850502</v>
+        <v>37.88024521</v>
       </c>
       <c r="E23">
-        <v>23.93241119</v>
+        <v>23.93131638</v>
       </c>
       <c r="F23">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="J23" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="K23" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2951,37 +2873,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>2590</v>
+        <v>3082</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D24">
-        <v>37.99121857</v>
+        <v>39.58132172</v>
       </c>
       <c r="E24">
-        <v>23.97574425</v>
+        <v>21.12143517</v>
       </c>
       <c r="F24">
-        <v>124</v>
+        <v>1147</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J24" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="K24" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2989,37 +2911,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>2593</v>
+        <v>3781</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D25">
-        <v>37.88024521</v>
+        <v>39.72293472</v>
       </c>
       <c r="E25">
-        <v>23.93131638</v>
+        <v>20.81564713</v>
       </c>
       <c r="F25">
-        <v>106</v>
+        <v>515</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I25" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J25" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="K25" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -3027,37 +2949,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>3082</v>
+        <v>3789</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D26">
-        <v>39.58132172</v>
+        <v>39.5817337</v>
       </c>
       <c r="E26">
-        <v>21.12143517</v>
+        <v>20.54135323</v>
       </c>
       <c r="F26">
-        <v>1147</v>
+        <v>433</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="J26" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K26" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3065,37 +2987,37 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>3781</v>
+        <v>3830</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D27">
-        <v>39.72293472</v>
+        <v>39.42049789</v>
       </c>
       <c r="E27">
-        <v>20.81564713</v>
+        <v>20.5326252</v>
       </c>
       <c r="F27">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="J27" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K27" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -3103,37 +3025,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>3789</v>
+        <v>5014</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D28">
-        <v>39.5817337</v>
+        <v>35.4911499</v>
       </c>
       <c r="E28">
-        <v>20.54135323</v>
+        <v>23.6350193</v>
       </c>
       <c r="F28">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I28" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="J28" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="K28" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -3141,37 +3063,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>3830</v>
+        <v>5150</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29">
-        <v>39.42049789</v>
+        <v>35.31163788</v>
       </c>
       <c r="E29">
-        <v>20.5326252</v>
+        <v>23.7068367</v>
       </c>
       <c r="F29">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I29" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="J29" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="K29" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -3179,37 +3101,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>5014</v>
+        <v>5320</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D30">
-        <v>35.4911499</v>
+        <v>35.29429626</v>
       </c>
       <c r="E30">
-        <v>23.6350193</v>
+        <v>24.18477249</v>
       </c>
       <c r="F30">
-        <v>85</v>
+        <v>723</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I30" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="J30" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="K30" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -3217,37 +3139,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>5150</v>
+        <v>5415</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D31">
-        <v>35.31163788</v>
+        <v>35.11586761</v>
       </c>
       <c r="E31">
-        <v>23.7068367</v>
+        <v>24.71587563</v>
       </c>
       <c r="F31">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="K31" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -3255,37 +3177,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>5320</v>
+        <v>5594</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D32">
-        <v>35.29429626</v>
+        <v>35.33547211</v>
       </c>
       <c r="E32">
-        <v>24.18477249</v>
+        <v>25.07364464</v>
       </c>
       <c r="F32">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I32" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J32" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="K32" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -3293,37 +3215,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>5415</v>
+        <v>6261</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D33">
-        <v>35.11586761</v>
+        <v>40.26165009</v>
       </c>
       <c r="E33">
-        <v>24.71587563</v>
+        <v>21.32537079</v>
       </c>
       <c r="F33">
-        <v>218</v>
+        <v>837</v>
       </c>
       <c r="G33" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I33" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="J33" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="K33" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3331,37 +3253,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>5594</v>
+        <v>6615</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D34">
-        <v>35.33547211</v>
+        <v>40.66807556</v>
       </c>
       <c r="E34">
-        <v>25.07364464</v>
+        <v>22.89260101</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I34" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J34" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="K34" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3369,37 +3291,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>6021</v>
+        <v>7405</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D35">
-        <v>35.31861115</v>
+        <v>40.76007462</v>
       </c>
       <c r="E35">
-        <v>25.71932602</v>
+        <v>24.63550949</v>
       </c>
       <c r="F35">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J35" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="K35" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3407,37 +3329,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>6261</v>
+        <v>7407</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D36">
-        <v>40.26165009</v>
+        <v>40.70549011</v>
       </c>
       <c r="E36">
-        <v>21.32537079</v>
+        <v>24.5986824</v>
       </c>
       <c r="F36">
-        <v>837</v>
+        <v>721</v>
       </c>
       <c r="G36" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I36" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="J36" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K36" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3445,37 +3367,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>6615</v>
+        <v>7422</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>40.66807556</v>
+        <v>40.68235779</v>
       </c>
       <c r="E37">
-        <v>22.89260101</v>
+        <v>24.76074219</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="I37" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J37" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K37" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3483,37 +3405,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>7405</v>
+        <v>7496</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D38">
-        <v>40.76007462</v>
+        <v>40.80821991</v>
       </c>
       <c r="E38">
-        <v>24.63550949</v>
+        <v>22.98309517</v>
       </c>
       <c r="F38">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H38" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I38" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="J38" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K38" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3521,37 +3443,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>7407</v>
+        <v>7535</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D39">
-        <v>40.70549011</v>
+        <v>40.81677628</v>
       </c>
       <c r="E39">
-        <v>24.5986824</v>
+        <v>22.4167099</v>
       </c>
       <c r="F39">
-        <v>721</v>
+        <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I39" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="J39" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K39" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -3559,37 +3481,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>7422</v>
+        <v>7584</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D40">
-        <v>40.68235779</v>
+        <v>40.1426239</v>
       </c>
       <c r="E40">
-        <v>24.76074219</v>
+        <v>23.73334312</v>
       </c>
       <c r="F40">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I40" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="J40" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K40" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -3597,37 +3519,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>7496</v>
+        <v>7658</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D41">
-        <v>40.80821991</v>
+        <v>40.21001434</v>
       </c>
       <c r="E41">
-        <v>22.98309517</v>
+        <v>24.32049179</v>
       </c>
       <c r="F41">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H41" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="I41" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K41" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3635,37 +3557,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>7535</v>
+        <v>7951</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D42">
-        <v>40.81677628</v>
+        <v>40.02112579</v>
       </c>
       <c r="E42">
-        <v>22.4167099</v>
+        <v>21.25971413</v>
       </c>
       <c r="F42">
-        <v>139</v>
+        <v>1028</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H42" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I42" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K42" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -3673,37 +3595,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>7584</v>
+        <v>7955</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D43">
-        <v>40.1426239</v>
+        <v>39.90694427</v>
       </c>
       <c r="E43">
-        <v>23.73334312</v>
+        <v>21.40356636</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>839</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I43" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" t="s">
         <v>425</v>
       </c>
-      <c r="J43" t="s">
-        <v>446</v>
-      </c>
       <c r="K43" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -3711,37 +3633,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>7658</v>
+        <v>7957</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D44">
-        <v>40.21001434</v>
+        <v>39.97267914</v>
       </c>
       <c r="E44">
-        <v>24.32049179</v>
+        <v>21.50016022</v>
       </c>
       <c r="F44">
-        <v>234</v>
+        <v>767</v>
       </c>
       <c r="G44" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H44" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I44" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K44" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3749,37 +3671,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>7951</v>
+        <v>7966</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D45">
-        <v>40.02112579</v>
+        <v>40.04336929</v>
       </c>
       <c r="E45">
-        <v>21.25971413</v>
+        <v>21.77271461</v>
       </c>
       <c r="F45">
-        <v>1028</v>
+        <v>648</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K45" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3787,37 +3709,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>7955</v>
+        <v>8078</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D46">
-        <v>39.90694427</v>
+        <v>36.82811737</v>
       </c>
       <c r="E46">
-        <v>21.40356636</v>
+        <v>22.43921471</v>
       </c>
       <c r="F46">
-        <v>839</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="I46" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="K46" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3825,37 +3747,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>7957</v>
+        <v>8167</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D47">
-        <v>39.97267914</v>
+        <v>36.98694229</v>
       </c>
       <c r="E47">
-        <v>21.50016022</v>
+        <v>22.46051788</v>
       </c>
       <c r="F47">
-        <v>767</v>
+        <v>214</v>
       </c>
       <c r="G47" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3863,37 +3785,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>7966</v>
+        <v>8495</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D48">
-        <v>40.04336929</v>
+        <v>37.41579437</v>
       </c>
       <c r="E48">
-        <v>21.77271461</v>
+        <v>22.58459473</v>
       </c>
       <c r="F48">
-        <v>648</v>
+        <v>487</v>
       </c>
       <c r="G48" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I48" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="J48" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="K48" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3901,37 +3823,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>8078</v>
+        <v>8514</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D49">
-        <v>36.82811737</v>
+        <v>37.43576813</v>
       </c>
       <c r="E49">
-        <v>22.43921471</v>
+        <v>21.65779686</v>
       </c>
       <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" t="s">
+        <v>343</v>
+      </c>
+      <c r="I49" t="s">
         <v>408</v>
       </c>
-      <c r="G49" t="s">
-        <v>270</v>
-      </c>
-      <c r="H49" t="s">
-        <v>358</v>
-      </c>
-      <c r="I49" t="s">
-        <v>427</v>
-      </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3939,37 +3861,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>8167</v>
+        <v>8747</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D50">
-        <v>36.98694229</v>
+        <v>37.70066833</v>
       </c>
       <c r="E50">
-        <v>22.46051788</v>
+        <v>21.43353271</v>
       </c>
       <c r="F50">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="J50" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3977,37 +3899,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>8495</v>
+        <v>9088</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D51">
-        <v>37.41579437</v>
+        <v>38.03437042</v>
       </c>
       <c r="E51">
-        <v>22.58459473</v>
+        <v>21.72503853</v>
       </c>
       <c r="F51">
-        <v>487</v>
+        <v>219</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H51" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -4015,37 +3937,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>8514</v>
+        <v>9192</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D52">
-        <v>37.43576813</v>
+        <v>38.15978241</v>
       </c>
       <c r="E52">
-        <v>21.65779686</v>
+        <v>21.72546768</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I52" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K52" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -4053,37 +3975,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>8747</v>
+        <v>9312</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D53">
-        <v>37.70066833</v>
+        <v>38.15267563</v>
       </c>
       <c r="E53">
-        <v>21.43353271</v>
+        <v>21.63353157</v>
       </c>
       <c r="F53">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I53" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="J53" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K53" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -4091,37 +4013,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>9088</v>
+        <v>9336</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54">
-        <v>38.03437042</v>
+        <v>38.03984451</v>
       </c>
       <c r="E54">
-        <v>21.72503853</v>
+        <v>21.71806717</v>
       </c>
       <c r="F54">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H54" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="I54" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="J54" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -4129,37 +4051,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>9192</v>
+        <v>9340</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D55">
-        <v>38.15978241</v>
+        <v>38.09297943</v>
       </c>
       <c r="E55">
-        <v>21.72546768</v>
+        <v>21.54567146</v>
       </c>
       <c r="F55">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H55" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="I55" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -4167,37 +4089,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>9258</v>
+        <v>9359</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D56">
-        <v>38.29988098</v>
+        <v>38.09861374</v>
       </c>
       <c r="E56">
-        <v>21.79375267</v>
+        <v>21.78113174</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H56" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -4205,37 +4127,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>9312</v>
+        <v>9511</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57">
-        <v>38.15267563</v>
+        <v>37.82006454</v>
       </c>
       <c r="E57">
-        <v>21.63353157</v>
+        <v>22.08734322</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H57" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="I57" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K57" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -4243,37 +4165,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>9336</v>
+        <v>9623</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D58">
-        <v>38.03984451</v>
+        <v>37.38682175</v>
       </c>
       <c r="E58">
-        <v>21.71806717</v>
+        <v>23.09873009</v>
       </c>
       <c r="F58">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I58" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="J58" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K58" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4281,37 +4203,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>9340</v>
+        <v>9626</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D59">
-        <v>38.09297943</v>
+        <v>37.41891861</v>
       </c>
       <c r="E59">
-        <v>21.54567146</v>
+        <v>23.1511631</v>
       </c>
       <c r="F59">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H59" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="I59" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K59" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -4319,37 +4241,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>9359</v>
+        <v>9855</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D60">
-        <v>38.09861374</v>
+        <v>37.80114365</v>
       </c>
       <c r="E60">
-        <v>21.78113174</v>
+        <v>21.78707695</v>
       </c>
       <c r="F60">
-        <v>318</v>
+        <v>661</v>
       </c>
       <c r="G60" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H60" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="J60" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K60" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4357,37 +4279,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>9511</v>
+        <v>10383</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D61">
-        <v>37.82006454</v>
+        <v>36.85286713</v>
       </c>
       <c r="E61">
-        <v>22.08734322</v>
+        <v>22.67599678</v>
       </c>
       <c r="F61">
-        <v>449</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="I61" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="J61" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K61" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -4395,37 +4317,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>9623</v>
+        <v>10713</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D62">
-        <v>37.38682175</v>
+        <v>38.35016632</v>
       </c>
       <c r="E62">
-        <v>23.09873009</v>
+        <v>21.55976868</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="I62" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="J62" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="K62" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4433,37 +4355,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>9626</v>
+        <v>10749</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D63">
-        <v>37.41891861</v>
+        <v>38.41975784</v>
       </c>
       <c r="E63">
-        <v>23.1511631</v>
+        <v>21.86283493</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="I63" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="J63" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="K63" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -4471,37 +4393,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>9855</v>
+        <v>10803</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D64">
-        <v>37.80114365</v>
+        <v>38.50453949</v>
       </c>
       <c r="E64">
-        <v>21.78707695</v>
+        <v>21.58404732</v>
       </c>
       <c r="F64">
-        <v>661</v>
+        <v>359</v>
       </c>
       <c r="G64" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="I64" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -4509,37 +4431,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>10383</v>
+        <v>10809</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D65">
-        <v>36.85286713</v>
+        <v>38.52417374</v>
       </c>
       <c r="E65">
-        <v>22.67599678</v>
+        <v>22.2026577</v>
       </c>
       <c r="F65">
-        <v>26</v>
+        <v>529</v>
       </c>
       <c r="G65" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H65" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I65" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -4547,37 +4469,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>10713</v>
+        <v>10843</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D66">
-        <v>38.35016632</v>
+        <v>38.56695557</v>
       </c>
       <c r="E66">
-        <v>21.55976868</v>
+        <v>22.02280426</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>974</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="H66" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I66" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K66" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -4585,37 +4507,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>10749</v>
+        <v>10881</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="D67">
-        <v>38.41975784</v>
+        <v>38.62174225</v>
       </c>
       <c r="E67">
-        <v>21.86283493</v>
+        <v>21.61232948</v>
       </c>
       <c r="F67">
-        <v>183</v>
+        <v>657</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H67" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I67" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J67" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K67" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -4623,37 +4545,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>10803</v>
+        <v>10911</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D68">
-        <v>38.50453949</v>
+        <v>38.65922928</v>
       </c>
       <c r="E68">
-        <v>21.58404732</v>
+        <v>21.83470345</v>
       </c>
       <c r="F68">
+        <v>632</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="s">
         <v>359</v>
       </c>
-      <c r="G68" t="s">
-        <v>284</v>
-      </c>
-      <c r="H68" t="s">
-        <v>374</v>
-      </c>
       <c r="I68" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J68" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K68" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -4661,37 +4583,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>10809</v>
+        <v>10921</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D69">
-        <v>38.52417374</v>
+        <v>38.66884613</v>
       </c>
       <c r="E69">
-        <v>22.2026577</v>
+        <v>21.53056145</v>
       </c>
       <c r="F69">
-        <v>529</v>
+        <v>759</v>
       </c>
       <c r="G69" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H69" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I69" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="J69" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K69" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -4699,37 +4621,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>10843</v>
+        <v>10939</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D70">
-        <v>38.56695557</v>
+        <v>38.68175888</v>
       </c>
       <c r="E70">
-        <v>22.02280426</v>
+        <v>21.26436234</v>
       </c>
       <c r="F70">
-        <v>974</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I70" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="J70" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K70" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -4737,37 +4659,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>10881</v>
+        <v>10940</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D71">
-        <v>38.62174225</v>
+        <v>38.68724823</v>
       </c>
       <c r="E71">
-        <v>21.61232948</v>
+        <v>21.52708244</v>
       </c>
       <c r="F71">
-        <v>657</v>
+        <v>570</v>
       </c>
       <c r="G71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H71" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="I71" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J71" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K71" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -4775,37 +4697,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>10911</v>
+        <v>11185</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D72">
-        <v>38.65922928</v>
+        <v>38.56124496</v>
       </c>
       <c r="E72">
-        <v>21.83470345</v>
+        <v>21.70519638</v>
       </c>
       <c r="F72">
-        <v>632</v>
+        <v>445</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H72" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="I72" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J72" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K72" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4813,37 +4735,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>10921</v>
+        <v>11219</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D73">
-        <v>38.66884613</v>
+        <v>38.64637375</v>
       </c>
       <c r="E73">
-        <v>21.53056145</v>
+        <v>21.5280838</v>
       </c>
       <c r="F73">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="G73" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="I73" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J73" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K73" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4851,37 +4773,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>10939</v>
+        <v>11291</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D74">
-        <v>38.68175888</v>
+        <v>38.50251389</v>
       </c>
       <c r="E74">
-        <v>21.26436234</v>
+        <v>21.59409142</v>
       </c>
       <c r="F74">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="H74" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="I74" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J74" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K74" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4889,37 +4811,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>10940</v>
+        <v>11293</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D75">
-        <v>38.68724823</v>
+        <v>38.49539948</v>
       </c>
       <c r="E75">
-        <v>21.52708244</v>
+        <v>21.61537933</v>
       </c>
       <c r="F75">
-        <v>570</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H75" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="I75" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="J75" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4927,37 +4849,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>11026</v>
+        <v>11371</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D76">
-        <v>38.85409927</v>
+        <v>39.03950882</v>
       </c>
       <c r="E76">
-        <v>20.98006439</v>
+        <v>21.4438343</v>
       </c>
       <c r="F76">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="G76" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H76" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="I76" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="J76" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K76" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -4965,37 +4887,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>11185</v>
+        <v>11719</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D77">
-        <v>38.56124496</v>
+        <v>39.32551956</v>
       </c>
       <c r="E77">
-        <v>21.70519638</v>
+        <v>23.14819145</v>
       </c>
       <c r="F77">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="G77" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H77" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="I77" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J77" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K77" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -5003,37 +4925,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>11219</v>
+        <v>11727</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D78">
-        <v>38.64637375</v>
+        <v>39.33442688</v>
       </c>
       <c r="E78">
-        <v>21.5280838</v>
+        <v>23.11571884</v>
       </c>
       <c r="F78">
-        <v>713</v>
+        <v>607</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H78" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="I78" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J78" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K78" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -5041,37 +4963,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>11291</v>
+        <v>11978</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D79">
-        <v>38.50251389</v>
+        <v>39.60485077</v>
       </c>
       <c r="E79">
-        <v>21.59409142</v>
+        <v>21.97900963</v>
       </c>
       <c r="F79">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H79" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J79" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K79" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -5079,37 +5001,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>11293</v>
+        <v>12157</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D80">
-        <v>38.49539948</v>
+        <v>39.15999985</v>
       </c>
       <c r="E80">
-        <v>21.61537933</v>
+        <v>23.88335991</v>
       </c>
       <c r="F80">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H80" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I80" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="J80" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K80" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -5117,37 +5039,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>11371</v>
+        <v>12340</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D81">
-        <v>39.03950882</v>
+        <v>39.63181686</v>
       </c>
       <c r="E81">
-        <v>21.4438343</v>
+        <v>22.35169029</v>
       </c>
       <c r="F81">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H81" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="J81" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K81" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -5155,37 +5077,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>11719</v>
+        <v>12445</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D82">
-        <v>39.32551956</v>
+        <v>39.37129974</v>
       </c>
       <c r="E82">
-        <v>23.14819145</v>
+        <v>21.89631081</v>
       </c>
       <c r="F82">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H82" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="J82" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K82" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -5193,37 +5115,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>11727</v>
+        <v>12560</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D83">
-        <v>39.33442688</v>
+        <v>39.49691772</v>
       </c>
       <c r="E83">
-        <v>23.11571884</v>
+        <v>21.31030846</v>
       </c>
       <c r="F83">
-        <v>607</v>
+        <v>811</v>
       </c>
       <c r="G83" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="I83" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="J83" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K83" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -5231,37 +5153,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>11978</v>
+        <v>12570</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D84">
-        <v>39.60485077</v>
+        <v>39.51812363</v>
       </c>
       <c r="E84">
-        <v>21.97900963</v>
+        <v>21.66906166</v>
       </c>
       <c r="F84">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G84" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H84" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I84" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J84" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K84" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -5269,37 +5191,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>12157</v>
+        <v>12591</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D85">
-        <v>39.15999985</v>
+        <v>39.52651978</v>
       </c>
       <c r="E85">
-        <v>23.88335991</v>
+        <v>21.77371216</v>
       </c>
       <c r="F85">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H85" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="I85" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="J85" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K85" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -5307,37 +5229,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>12340</v>
+        <v>12592</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D86">
-        <v>39.63181686</v>
+        <v>39.53682327</v>
       </c>
       <c r="E86">
-        <v>22.35169029</v>
+        <v>21.79887009</v>
       </c>
       <c r="F86">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H86" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I86" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="J86" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K86" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -5345,37 +5267,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>12445</v>
+        <v>12593</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D87">
-        <v>39.37129974</v>
+        <v>39.52386856</v>
       </c>
       <c r="E87">
-        <v>21.89631081</v>
+        <v>21.76239395</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H87" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="I87" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="J87" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K87" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -5383,37 +5305,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>12560</v>
+        <v>12595</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D88">
-        <v>39.49691772</v>
+        <v>39.57610703</v>
       </c>
       <c r="E88">
-        <v>21.31030846</v>
+        <v>21.77515411</v>
       </c>
       <c r="F88">
-        <v>811</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H88" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I88" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J88" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K88" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -5421,37 +5343,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>12570</v>
+        <v>12597</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D89">
-        <v>39.51812363</v>
+        <v>39.5848465</v>
       </c>
       <c r="E89">
-        <v>21.66906166</v>
+        <v>21.7515831</v>
       </c>
       <c r="F89">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="H89" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="I89" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J89" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K89" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -5459,37 +5381,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>12591</v>
+        <v>12605</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D90">
-        <v>39.52651978</v>
+        <v>39.53474426</v>
       </c>
       <c r="E90">
-        <v>21.77371216</v>
+        <v>21.67856026</v>
       </c>
       <c r="F90">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G90" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H90" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I90" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J90" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K90" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -5497,37 +5419,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>12592</v>
+        <v>12776</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D91">
-        <v>39.53682327</v>
+        <v>41.43026352</v>
       </c>
       <c r="E91">
-        <v>21.79887009</v>
+        <v>26.55812454</v>
       </c>
       <c r="F91">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H91" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="I91" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="J91" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K91" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -5535,37 +5457,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>12593</v>
+        <v>12809</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D92">
-        <v>39.52386856</v>
+        <v>40.46025848</v>
       </c>
       <c r="E92">
-        <v>21.76239395</v>
+        <v>25.52816772</v>
       </c>
       <c r="F92">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="G92" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H92" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I92" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="J92" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K92" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -5573,37 +5495,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>12595</v>
+        <v>12852</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D93">
-        <v>39.57610703</v>
+        <v>41.32851028</v>
       </c>
       <c r="E93">
-        <v>21.77515411</v>
+        <v>26.4580574</v>
       </c>
       <c r="F93">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="G93" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H93" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="I93" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="J93" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K93" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -5611,37 +5533,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>12597</v>
+        <v>12892</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D94">
-        <v>39.5848465</v>
+        <v>40.96169662</v>
       </c>
       <c r="E94">
-        <v>21.7515831</v>
+        <v>25.71660042</v>
       </c>
       <c r="F94">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="G94" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H94" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="I94" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="J94" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K94" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -5649,37 +5571,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>12605</v>
+        <v>12902</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D95">
-        <v>39.53474426</v>
+        <v>40.91101837</v>
       </c>
       <c r="E95">
-        <v>21.67856026</v>
+        <v>25.39807701</v>
       </c>
       <c r="F95">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H95" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="I95" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J95" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="K95" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -5687,37 +5609,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>12776</v>
+        <v>12916</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D96">
-        <v>41.43026352</v>
+        <v>41.23671341</v>
       </c>
       <c r="E96">
-        <v>26.55812454</v>
+        <v>25.89315033</v>
       </c>
       <c r="F96">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="G96" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H96" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="I96" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="J96" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K96" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5725,37 +5647,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>12809</v>
+        <v>13039</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D97">
-        <v>40.46025848</v>
+        <v>41.19888687</v>
       </c>
       <c r="E97">
-        <v>25.52816772</v>
+        <v>25.1587925</v>
       </c>
       <c r="F97">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="G97" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H97" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="I97" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="J97" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K97" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5763,37 +5685,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>12852</v>
+        <v>13041</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D98">
-        <v>41.32851028</v>
+        <v>41.20209122</v>
       </c>
       <c r="E98">
-        <v>26.4580574</v>
+        <v>25.12547493</v>
       </c>
       <c r="F98">
-        <v>170</v>
+        <v>544</v>
       </c>
       <c r="G98" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="I98" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="J98" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K98" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5801,37 +5723,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>12892</v>
+        <v>13074</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D99">
-        <v>40.96169662</v>
+        <v>41.08436966</v>
       </c>
       <c r="E99">
-        <v>25.71660042</v>
+        <v>24.90606308</v>
       </c>
       <c r="F99">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H99" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="I99" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="J99" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K99" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5839,37 +5761,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>12902</v>
+        <v>13085</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="D100">
-        <v>40.91101837</v>
+        <v>41.11663437</v>
       </c>
       <c r="E100">
-        <v>25.39807701</v>
+        <v>24.85998726</v>
       </c>
       <c r="F100">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="G100" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="I100" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="J100" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K100" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -5877,37 +5799,37 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>12916</v>
+        <v>13095</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D101">
-        <v>41.23671341</v>
+        <v>41.22198868</v>
       </c>
       <c r="E101">
-        <v>25.89315033</v>
+        <v>24.47961235</v>
       </c>
       <c r="F101">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H101" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="I101" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="J101" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K101" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -5915,37 +5837,37 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>13039</v>
+        <v>13099</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D102">
-        <v>41.19888687</v>
+        <v>41.24183655</v>
       </c>
       <c r="E102">
-        <v>25.1587925</v>
+        <v>24.59605598</v>
       </c>
       <c r="F102">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="G102" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="H102" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="I102" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="J102" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K102" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -5953,37 +5875,37 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>13041</v>
+        <v>13148</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D103">
-        <v>41.20209122</v>
+        <v>41.14443588</v>
       </c>
       <c r="E103">
-        <v>25.12547493</v>
+        <v>24.92086601</v>
       </c>
       <c r="F103">
-        <v>544</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H103" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="I103" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="J103" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K103" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -5991,37 +5913,37 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>13074</v>
+        <v>13152</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D104">
-        <v>41.08436966</v>
+        <v>41.19002151</v>
       </c>
       <c r="E104">
-        <v>24.90606308</v>
+        <v>25.02506828</v>
       </c>
       <c r="F104">
-        <v>41</v>
+        <v>581</v>
       </c>
       <c r="G104" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H104" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="I104" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="J104" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K104" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -6029,37 +5951,37 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>13085</v>
+        <v>13154</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="D105">
-        <v>41.11663437</v>
+        <v>41.20407104</v>
       </c>
       <c r="E105">
-        <v>24.85998726</v>
+        <v>25.0443821</v>
       </c>
       <c r="F105">
-        <v>119</v>
+        <v>677</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H105" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="I105" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="J105" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K105" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -6067,37 +5989,37 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>13095</v>
+        <v>13157</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D106">
-        <v>41.22198868</v>
+        <v>41.19659424</v>
       </c>
       <c r="E106">
-        <v>24.47961235</v>
+        <v>25.05353355</v>
       </c>
       <c r="F106">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="G106" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H106" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="I106" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="J106" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K106" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -6105,37 +6027,37 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>13099</v>
+        <v>13199</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D107">
-        <v>41.24183655</v>
+        <v>36.1481514</v>
       </c>
       <c r="E107">
-        <v>24.59605598</v>
+        <v>29.59897041</v>
       </c>
       <c r="F107">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="H107" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="I107" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J107" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="K107" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -6143,37 +6065,37 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>13148</v>
+        <v>13227</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D108">
-        <v>41.14443588</v>
+        <v>38.44179153</v>
       </c>
       <c r="E108">
-        <v>24.92086601</v>
+        <v>23.60174942</v>
       </c>
       <c r="F108">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H108" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="I108" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J108" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="K108" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -6181,37 +6103,37 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>13152</v>
+        <v>13238</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D109">
-        <v>41.19002151</v>
+        <v>36.1515007</v>
       </c>
       <c r="E109">
-        <v>25.02506828</v>
+        <v>29.59729004</v>
       </c>
       <c r="F109">
-        <v>581</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H109" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="I109" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J109" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="K109" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -6219,37 +6141,37 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>13154</v>
+        <v>13241</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D110">
-        <v>41.20407104</v>
+        <v>36.25738907</v>
       </c>
       <c r="E110">
-        <v>25.0443821</v>
+        <v>27.76605988</v>
       </c>
       <c r="F110">
-        <v>677</v>
+        <v>45</v>
       </c>
       <c r="G110" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H110" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="I110" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J110" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="K110" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -6257,37 +6179,37 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>13157</v>
+        <v>13244</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D111">
-        <v>41.19659424</v>
+        <v>37.47692108</v>
       </c>
       <c r="E111">
-        <v>25.05353355</v>
+        <v>23.91823006</v>
       </c>
       <c r="F111">
-        <v>501</v>
+        <v>199</v>
       </c>
       <c r="G111" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H111" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I111" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J111" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="K111" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -6295,37 +6217,37 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>13199</v>
+        <v>13251</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D112">
-        <v>36.1481514</v>
+        <v>36.14915848</v>
       </c>
       <c r="E112">
-        <v>29.59897041</v>
+        <v>29.60375977</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H112" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I112" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J112" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K112" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -6333,229 +6255,39 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>13227</v>
+        <v>13257</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D113">
-        <v>38.44179153</v>
+        <v>35.89157867</v>
       </c>
       <c r="E113">
-        <v>23.60174942</v>
+        <v>26.81368065</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H113" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="I113" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="J113" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="K113" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="L113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="1">
-        <v>13238</v>
-      </c>
-      <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114">
-        <v>36.1515007</v>
-      </c>
-      <c r="E114">
-        <v>29.59729004</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>316</v>
-      </c>
-      <c r="H114" t="s">
-        <v>403</v>
-      </c>
-      <c r="I114" t="s">
-        <v>410</v>
-      </c>
-      <c r="J114" t="s">
-        <v>442</v>
-      </c>
-      <c r="K114" t="s">
-        <v>562</v>
-      </c>
-      <c r="L114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="1">
-        <v>13241</v>
-      </c>
-      <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115">
-        <v>36.25738907</v>
-      </c>
-      <c r="E115">
-        <v>27.76605988</v>
-      </c>
-      <c r="F115">
-        <v>45</v>
-      </c>
-      <c r="G115" t="s">
-        <v>318</v>
-      </c>
-      <c r="H115" t="s">
-        <v>405</v>
-      </c>
-      <c r="I115" t="s">
-        <v>410</v>
-      </c>
-      <c r="J115" t="s">
-        <v>442</v>
-      </c>
-      <c r="K115" t="s">
-        <v>563</v>
-      </c>
-      <c r="L115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="1">
-        <v>13244</v>
-      </c>
-      <c r="B116" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116">
-        <v>37.47692108</v>
-      </c>
-      <c r="E116">
-        <v>23.91823006</v>
-      </c>
-      <c r="F116">
-        <v>199</v>
-      </c>
-      <c r="G116" t="s">
-        <v>319</v>
-      </c>
-      <c r="H116" t="s">
-        <v>406</v>
-      </c>
-      <c r="I116" t="s">
-        <v>412</v>
-      </c>
-      <c r="J116" t="s">
-        <v>443</v>
-      </c>
-      <c r="K116" t="s">
-        <v>564</v>
-      </c>
-      <c r="L116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="1">
-        <v>13251</v>
-      </c>
-      <c r="B117" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" t="s">
-        <v>228</v>
-      </c>
-      <c r="D117">
-        <v>36.14915848</v>
-      </c>
-      <c r="E117">
-        <v>29.60375977</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>320</v>
-      </c>
-      <c r="H117" t="s">
-        <v>407</v>
-      </c>
-      <c r="I117" t="s">
-        <v>410</v>
-      </c>
-      <c r="J117" t="s">
-        <v>442</v>
-      </c>
-      <c r="K117" t="s">
-        <v>565</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="1">
-        <v>13257</v>
-      </c>
-      <c r="B118" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>229</v>
-      </c>
-      <c r="D118">
-        <v>35.89157867</v>
-      </c>
-      <c r="E118">
-        <v>26.81368065</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" t="s">
-        <v>320</v>
-      </c>
-      <c r="H118" t="s">
-        <v>407</v>
-      </c>
-      <c r="I118" t="s">
-        <v>410</v>
-      </c>
-      <c r="J118" t="s">
-        <v>442</v>
-      </c>
-      <c r="K118" t="s">
-        <v>566</v>
-      </c>
-      <c r="L118" t="b">
         <v>0</v>
       </c>
     </row>
